--- a/translation/xlsx/_tsum_024_1.xlsx
+++ b/translation/xlsx/_tsum_024_1.xlsx
@@ -1821,7 +1821,7 @@
     <t>She probably thought the place researching the \"parasite\" is... the Irie Clinic.</t>
   </si>
   <si>
-    <t>기생충' 연구소는... 분명 진료소라고 생각하고 있었다.</t>
+    <t xml:space="preserve"> '기생충' 연구소는... 분명 진료소라고 생각하고 있었다.</t>
   </si>
   <si>
     <t xml:space="preserve">「기생충」 연구소는, 아마 진료소라고 생각하고 있을 것이다. </t>
@@ -2332,7 +2332,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -2352,6 +2352,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
   </fonts>
   <fills count="3">
     <fill>
@@ -2387,7 +2388,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2402,6 +2403,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -5079,7 +5083,7 @@
       <c r="C130" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="6" t="s">
         <v>601</v>
       </c>
       <c r="H130" s="4"/>
@@ -6489,7 +6493,7 @@
       <c r="H410" s="4"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="H411" s="6"/>
+      <c r="H411" s="7"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
       <c r="H412" s="4"/>
@@ -6873,7 +6877,7 @@
       <c r="H538" s="4"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="H539" s="6"/>
+      <c r="H539" s="7"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
       <c r="H540" s="4"/>
@@ -7251,7 +7255,7 @@
       <c r="H664" s="4"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="H665" s="6"/>
+      <c r="H665" s="7"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
       <c r="H666" s="4"/>
